--- a/app/templates/report/descuentos.xlsx
+++ b/app/templates/report/descuentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33C426-7FEB-4FE4-A98C-2C7CD1C114E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A93DA6-6722-4E41-922C-EB9EF2D870A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Renta teórica</t>
-  </si>
-  <si>
     <t>Descuento</t>
   </si>
   <si>
@@ -88,6 +85,10 @@
   </si>
   <si>
     <t>Promoción</t>
+  </si>
+  <si>
+    <t>Renta
+teórica</t>
   </si>
 </sst>
 </file>
@@ -670,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -688,37 +689,37 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">

--- a/app/templates/report/descuentos.xlsx
+++ b/app/templates/report/descuentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A93DA6-6722-4E41-922C-EB9EF2D870A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB57099-957F-42E8-AFDA-7318CCBF8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Descuentos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Descuentos!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Descuentos!$A$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Reserva</t>
   </si>
@@ -89,17 +89,21 @@
   <si>
     <t>Renta
 teórica</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;€&quot;;[Red]\-#,##0.0\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00%;[Red]\-0.00%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -146,6 +150,10 @@
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -203,12 +211,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,11 +257,18 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,16 +660,18 @@
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.5703125" style="7" customWidth="1"/>
-    <col min="7" max="8" width="29.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="63.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.140625" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="14.28515625" style="1"/>
+    <col min="4" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="7" customWidth="1"/>
+    <col min="8" max="9" width="29.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.140625" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -666,19 +684,23 @@
         <f>SUBTOTAL(9,E3:E99999)</f>
         <v>0</v>
       </c>
-      <c r="F1" s="14">
-        <f>SUBTOTAL(9,F3:F99999)</f>
+      <c r="F1" s="16">
+        <f>IF(D1&lt;&gt;0,E1/D1,0)</f>
         <v>0</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="G1" s="14">
+        <f>SUBTOTAL(9,G3:G99999)</f>
+        <v>0</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -695,34 +717,37 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10" t="s">
@@ -730,18 +755,22 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="15">
+        <f>IF(D3&lt;&gt;0,E3/D3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:O2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
